--- a/results/Presentation_Marks.xlsx
+++ b/results/Presentation_Marks.xlsx
@@ -886,22 +886,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1.646153846153846</v>
+        <v>1.636842105263158</v>
       </c>
       <c r="E14" t="n">
-        <v>1.864102564102564</v>
+        <v>1.860526315789474</v>
       </c>
       <c r="F14" t="n">
-        <v>1.791282051282051</v>
+        <v>1.785789473684211</v>
       </c>
       <c r="G14" t="n">
-        <v>1.637179487179487</v>
+        <v>1.627631578947369</v>
       </c>
       <c r="H14" t="n">
-        <v>1.480769230769231</v>
+        <v>1.467105263157895</v>
       </c>
       <c r="I14" t="n">
-        <v>7.636279069767443</v>
+        <v>7.58</v>
       </c>
     </row>
     <row r="15">
@@ -919,22 +919,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.8734375</v>
+        <v>1.860344827586207</v>
       </c>
       <c r="E15" t="n">
-        <v>1.9</v>
+        <v>1.924137931034483</v>
       </c>
       <c r="F15" t="n">
-        <v>1.896875</v>
+        <v>1.920689655172414</v>
       </c>
       <c r="G15" t="n">
-        <v>1.821875</v>
+        <v>1.803448275862069</v>
       </c>
       <c r="H15" t="n">
-        <v>1.6265625</v>
+        <v>1.587931034482759</v>
       </c>
       <c r="I15" t="n">
-        <v>8.842424242424244</v>
+        <v>8.793333333333333</v>
       </c>
     </row>
     <row r="16">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.682352941176471</v>
+        <v>1.672727272727273</v>
       </c>
       <c r="E16" t="n">
-        <v>1.621621621621622</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="F16" t="n">
-        <v>1.930555555555556</v>
+        <v>1.928571428571429</v>
       </c>
       <c r="G16" t="n">
-        <v>1.662162162162162</v>
+        <v>1.652777777777778</v>
       </c>
       <c r="H16" t="n">
-        <v>1.321621621621622</v>
+        <v>1.302777777777778</v>
       </c>
       <c r="I16" t="n">
-        <v>7.4275</v>
+        <v>7.361538461538462</v>
       </c>
     </row>
     <row r="17">
@@ -1018,22 +1018,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.889189189189189</v>
+        <v>1.886111111111111</v>
       </c>
       <c r="E18" t="n">
-        <v>1.881081081081081</v>
+        <v>1.905555555555555</v>
       </c>
       <c r="F18" t="n">
-        <v>1.969444444444445</v>
+        <v>1.968571428571429</v>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.742857142857143</v>
       </c>
       <c r="H18" t="n">
-        <v>1.58</v>
+        <v>1.597058823529412</v>
       </c>
       <c r="I18" t="n">
-        <v>7.644186046511628</v>
+        <v>7.821951219512195</v>
       </c>
     </row>
     <row r="19">
@@ -1117,22 +1117,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.966666666666667</v>
+        <v>1.965853658536585</v>
       </c>
       <c r="E21" t="n">
-        <v>1.864285714285714</v>
+        <v>1.860975609756097</v>
       </c>
       <c r="F21" t="n">
-        <v>1.941463414634146</v>
+        <v>1.94</v>
       </c>
       <c r="G21" t="n">
-        <v>1.8</v>
+        <v>1.819512195121951</v>
       </c>
       <c r="H21" t="n">
-        <v>1.733333333333333</v>
+        <v>1.726829268292683</v>
       </c>
       <c r="I21" t="n">
-        <v>9.044186046511628</v>
+        <v>9.045238095238094</v>
       </c>
     </row>
     <row r="22">
@@ -1183,22 +1183,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1.772727272727273</v>
+        <v>1.768292682926829</v>
       </c>
       <c r="E23" t="n">
-        <v>1.906976744186047</v>
+        <v>1.9125</v>
       </c>
       <c r="F23" t="n">
-        <v>1.872727272727273</v>
+        <v>1.9</v>
       </c>
       <c r="G23" t="n">
-        <v>1.815555555555556</v>
+        <v>1.814285714285714</v>
       </c>
       <c r="H23" t="n">
-        <v>1.49</v>
+        <v>1.46547619047619</v>
       </c>
       <c r="I23" t="n">
-        <v>8.322340425531914</v>
+        <v>8.2875</v>
       </c>
     </row>
     <row r="24">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.935294117647059</v>
+        <v>1.963636363636364</v>
       </c>
       <c r="E24" t="n">
-        <v>1.920588235294117</v>
+        <v>1.918181818181818</v>
       </c>
       <c r="F24" t="n">
-        <v>1.982352941176471</v>
+        <v>1.981818181818182</v>
       </c>
       <c r="G24" t="n">
-        <v>1.902941176470588</v>
+        <v>1.9</v>
       </c>
       <c r="H24" t="n">
-        <v>1.964705882352941</v>
+        <v>1.963636363636364</v>
       </c>
       <c r="I24" t="n">
-        <v>9.166666666666666</v>
+        <v>9.171428571428571</v>
       </c>
     </row>
     <row r="25">
@@ -1249,22 +1249,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.930232558139535</v>
+        <v>1.9375</v>
       </c>
       <c r="E25" t="n">
-        <v>1.88953488372093</v>
+        <v>1.89375</v>
       </c>
       <c r="F25" t="n">
-        <v>1.946511627906977</v>
+        <v>1.955</v>
       </c>
       <c r="G25" t="n">
-        <v>1.873255813953488</v>
+        <v>1.87625</v>
       </c>
       <c r="H25" t="n">
-        <v>1.880232558139535</v>
+        <v>1.88375</v>
       </c>
       <c r="I25" t="n">
-        <v>9.303409090909092</v>
+        <v>9.313414634146342</v>
       </c>
     </row>
     <row r="26">
@@ -1282,22 +1282,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1.854651162790698</v>
+        <v>1.851190476190476</v>
       </c>
       <c r="E26" t="n">
-        <v>1.83953488372093</v>
+        <v>1.835714285714286</v>
       </c>
       <c r="F26" t="n">
-        <v>1.759756097560976</v>
+        <v>1.75375</v>
       </c>
       <c r="G26" t="n">
-        <v>1.63953488372093</v>
+        <v>1.630952380952381</v>
       </c>
       <c r="H26" t="n">
-        <v>1.551162790697674</v>
+        <v>1.540476190476191</v>
       </c>
       <c r="I26" t="n">
-        <v>8.182222222222222</v>
+        <v>8.140909090909091</v>
       </c>
     </row>
     <row r="27">
@@ -1315,22 +1315,22 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.935714285714286</v>
+        <v>1.9325</v>
       </c>
       <c r="E27" t="n">
-        <v>1.881707317073171</v>
+        <v>1.875641025641026</v>
       </c>
       <c r="F27" t="n">
-        <v>1.892857142857143</v>
+        <v>1.8875</v>
       </c>
       <c r="G27" t="n">
-        <v>1.841666666666667</v>
+        <v>1.83375</v>
       </c>
       <c r="H27" t="n">
-        <v>1.635714285714286</v>
+        <v>1.6425</v>
       </c>
       <c r="I27" t="n">
-        <v>8.727272727272727</v>
+        <v>8.69047619047619</v>
       </c>
     </row>
     <row r="28">
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.794736842105263</v>
+        <v>1.789189189189189</v>
       </c>
       <c r="E28" t="n">
-        <v>1.575675675675676</v>
+        <v>1.563888888888889</v>
       </c>
       <c r="F28" t="n">
-        <v>1.942105263157895</v>
+        <v>1.94054054054054</v>
       </c>
       <c r="G28" t="n">
-        <v>1.502631578947369</v>
+        <v>1.516216216216216</v>
       </c>
       <c r="H28" t="n">
-        <v>1.317948717948718</v>
+        <v>1.3</v>
       </c>
       <c r="I28" t="n">
-        <v>7.18139534883721</v>
+        <v>7.138095238095238</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1414,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1.885897435897436</v>
+        <v>1.882894736842105</v>
       </c>
       <c r="E30" t="n">
-        <v>1.893589743589744</v>
+        <v>1.89078947368421</v>
       </c>
       <c r="F30" t="n">
-        <v>1.856410256410256</v>
+        <v>1.852631578947369</v>
       </c>
       <c r="G30" t="n">
-        <v>1.617948717948718</v>
+        <v>1.607894736842105</v>
       </c>
       <c r="H30" t="n">
-        <v>1.607692307692308</v>
+        <v>1.597368421052632</v>
       </c>
       <c r="I30" t="n">
-        <v>8.22857142857143</v>
+        <v>8.185365853658537</v>
       </c>
     </row>
   </sheetData>
